--- a/biology/Zoologie/Exilisciurus/Exilisciurus.xlsx
+++ b/biology/Zoologie/Exilisciurus/Exilisciurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Exilisciurus est un genre d'écureuils de la famille des Sciuridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Exilisciurus est un genre d'écureuils de la famille des Sciuridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Exilisciurus se rencontre sur les îles de Bornéo, de Java, de Sumatra, de Banggi, de Bangka et de Sinkep ainsi que dans le sud des Philippines sur les îles de Basilan, Biliran, Bohol, Dinagat, Leyte, Mindanao, Samar et Siargao[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Exilisciurus se rencontre sur les îles de Bornéo, de Java, de Sumatra, de Banggi, de Bangka et de Sinkep ainsi que dans le sud des Philippines sur les îles de Basilan, Biliran, Bohol, Dinagat, Leyte, Mindanao, Samar et Siargao.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ce genre comporte trois espèces[1],[2],[3] :
-Exilisciurus concinnus (Thomas, 1888) - Philippines[1]
-Exilisciurus exilis (Müller, 1838) - Bornéo et îles adjacentes[1]
-Exilisciurus whiteheadi (Thomas, 1887) - Bornéo[1]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ce genre comporte trois espèces :
+Exilisciurus concinnus (Thomas, 1888) - Philippines
+Exilisciurus exilis (Müller, 1838) - Bornéo et îles adjacentes
+Exilisciurus whiteheadi (Thomas, 1887) - Bornéo</t>
         </is>
       </c>
     </row>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Moore, J. C. 1958. New genera of East Indian squirrels. American Museum Novitates, 1914: 1-5. (pdf)</t>
         </is>
